--- a/files/OSP2022Spring/OSP_Grading2022v2.xlsx
+++ b/files/OSP2022Spring/OSP_Grading2022v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chewei\Dropbox\WeiWork\Course_CGU\2022Spring\OSP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chewei\GitHub\webpage\files\OSP2022Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1861,7 +1861,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
@@ -2684,7 +2684,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="2">
-        <v>42</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="F23">
         <v>20</v>
@@ -7446,7 +7446,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -8303,7 +8303,7 @@
         <v>100</v>
       </c>
       <c r="F22" s="2">
-        <v>42</v>
+        <v>32.799999999999997</v>
       </c>
       <c r="G22">
         <v>100</v>
@@ -8319,11 +8319,11 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>69.2</v>
+        <v>68.28</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="1"/>
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.4">

--- a/files/OSP2022Spring/OSP_Grading2022v2.xlsx
+++ b/files/OSP2022Spring/OSP_Grading2022v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chewei\GitHub\webpage\files\OSP2022Spring\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chewei\Dropbox\WeiWork\Course_CGU\2022Spring\OSP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1862,7 +1862,7 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -2684,7 +2684,7 @@
         <v>10</v>
       </c>
       <c r="E23" s="2">
-        <v>32.799999999999997</v>
+        <v>33.6</v>
       </c>
       <c r="F23">
         <v>20</v>
@@ -4303,8 +4303,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -5005,26 +5005,25 @@
         <v>45</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I25">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <v>33.200000000000003</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.4">
@@ -5189,7 +5188,7 @@
   <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -7445,8 +7444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -8303,7 +8302,7 @@
         <v>100</v>
       </c>
       <c r="F22" s="2">
-        <v>32.799999999999997</v>
+        <v>33.6</v>
       </c>
       <c r="G22">
         <v>100</v>
@@ -8319,7 +8318,7 @@
       </c>
       <c r="K22">
         <f t="shared" si="0"/>
-        <v>68.28</v>
+        <v>68.36</v>
       </c>
       <c r="L22" s="2">
         <f t="shared" si="1"/>
@@ -8391,19 +8390,19 @@
       <c r="H24">
         <v>46</v>
       </c>
-      <c r="I24">
-        <v>0</v>
+      <c r="I24" s="2">
+        <v>33.200000000000003</v>
       </c>
       <c r="J24">
         <v>91</v>
       </c>
       <c r="K24">
         <f t="shared" si="0"/>
-        <v>57.5</v>
+        <v>62.480000000000004</v>
       </c>
       <c r="L24">
         <f t="shared" si="1"/>
-        <v>58</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.4">

--- a/files/OSP2022Spring/OSP_Grading2022v2.xlsx
+++ b/files/OSP2022Spring/OSP_Grading2022v2.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chewei\Dropbox\WeiWork\Course_CGU\2022Spring\OSP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chewei\GitHub\webpage\files\OSP2022Spring\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -7445,7 +7445,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
@@ -8400,7 +8400,7 @@
         <f t="shared" si="0"/>
         <v>62.480000000000004</v>
       </c>
-      <c r="L24">
+      <c r="L24" s="2">
         <f t="shared" si="1"/>
         <v>63</v>
       </c>
